--- a/KnowledgeGraph/data/disclosure_method.xlsx
+++ b/KnowledgeGraph/data/disclosure_method.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20976" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>名词</t>
   </si>
@@ -22,10 +22,16 @@
     <t>定义</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>披露方式</t>
   </si>
   <si>
     <t>只通过官网或者其他方式发布关于理财产品信息变动和实时资讯的方式。</t>
+  </si>
+  <si>
+    <t>消息来源,消息渠道,消息途径</t>
   </si>
 </sst>
 </file>
@@ -34,11 +40,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,27 +56,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -79,31 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,13 +82,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -131,22 +112,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,39 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,43 +206,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,115 +368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,17 +400,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,6 +429,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,51 +493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,28 +973,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
